--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.344504292695358</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H2">
-        <v>0.344504292695358</v>
+        <v>2.062132</v>
       </c>
       <c r="I2">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J2">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N2">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O2">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P2">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q2">
-        <v>14.46901904525229</v>
+        <v>36.36934344025023</v>
       </c>
       <c r="R2">
-        <v>14.46901904525229</v>
+        <v>327.324090962252</v>
       </c>
       <c r="S2">
-        <v>0.005053725872175339</v>
+        <v>0.01107330826389577</v>
       </c>
       <c r="T2">
-        <v>0.005053725872175339</v>
+        <v>0.01107330826389577</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.344504292695358</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H3">
-        <v>0.344504292695358</v>
+        <v>2.062132</v>
       </c>
       <c r="I3">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J3">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N3">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P3">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q3">
-        <v>16.1647869597569</v>
+        <v>32.48549287034444</v>
       </c>
       <c r="R3">
-        <v>16.1647869597569</v>
+        <v>292.3694358331</v>
       </c>
       <c r="S3">
-        <v>0.005646022154040338</v>
+        <v>0.009890799300484627</v>
       </c>
       <c r="T3">
-        <v>0.005646022154040338</v>
+        <v>0.009890799300484627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.344504292695358</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H4">
-        <v>0.344504292695358</v>
+        <v>2.062132</v>
       </c>
       <c r="I4">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J4">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N4">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P4">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q4">
-        <v>9.136215584274703</v>
+        <v>18.54173365650045</v>
       </c>
       <c r="R4">
-        <v>9.136215584274703</v>
+        <v>166.875602908504</v>
       </c>
       <c r="S4">
-        <v>0.00319108910753497</v>
+        <v>0.00564536813436817</v>
       </c>
       <c r="T4">
-        <v>0.00319108910753497</v>
+        <v>0.00564536813436817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.47763752060708</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H5">
-        <v>5.47763752060708</v>
+        <v>17.741954</v>
       </c>
       <c r="I5">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J5">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N5">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O5">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P5">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q5">
-        <v>230.0582120140307</v>
+        <v>312.9107245933438</v>
       </c>
       <c r="R5">
-        <v>230.0582120140307</v>
+        <v>2816.196521340094</v>
       </c>
       <c r="S5">
-        <v>0.08035452400231699</v>
+        <v>0.09527136276720331</v>
       </c>
       <c r="T5">
-        <v>0.08035452400231699</v>
+        <v>0.09527136276720333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.47763752060708</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H6">
-        <v>5.47763752060708</v>
+        <v>17.741954</v>
       </c>
       <c r="I6">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J6">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N6">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P6">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q6">
-        <v>257.0210166921892</v>
+        <v>279.4952603291055</v>
       </c>
       <c r="R6">
-        <v>257.0210166921892</v>
+        <v>2515.45734296195</v>
       </c>
       <c r="S6">
-        <v>0.0897720680087389</v>
+        <v>0.08509741675723494</v>
       </c>
       <c r="T6">
-        <v>0.0897720680087389</v>
+        <v>0.08509741675723495</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.47763752060708</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H7">
-        <v>5.47763752060708</v>
+        <v>17.741954</v>
       </c>
       <c r="I7">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J7">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N7">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P7">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q7">
-        <v>145.2663387420617</v>
+        <v>159.5274141586876</v>
       </c>
       <c r="R7">
-        <v>145.2663387420617</v>
+        <v>1435.746727428188</v>
       </c>
       <c r="S7">
-        <v>0.05073849527469079</v>
+        <v>0.04857102346165321</v>
       </c>
       <c r="T7">
-        <v>0.05073849527469079</v>
+        <v>0.04857102346165322</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.978688358287</v>
+        <v>19.230689</v>
       </c>
       <c r="H8">
-        <v>18.978688358287</v>
+        <v>57.692067</v>
       </c>
       <c r="I8">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="J8">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N8">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O8">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P8">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q8">
-        <v>797.0960279232032</v>
+        <v>1017.501594709226</v>
       </c>
       <c r="R8">
-        <v>797.0960279232032</v>
+        <v>9157.514352383037</v>
       </c>
       <c r="S8">
-        <v>0.2784089789587701</v>
+        <v>0.3097968715253573</v>
       </c>
       <c r="T8">
-        <v>0.2784089789587701</v>
+        <v>0.3097968715253573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.978688358287</v>
+        <v>19.230689</v>
       </c>
       <c r="H9">
-        <v>18.978688358287</v>
+        <v>57.692067</v>
       </c>
       <c r="I9">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="J9">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N9">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P9">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q9">
-        <v>890.5156208274486</v>
+        <v>908.8434839301916</v>
       </c>
       <c r="R9">
-        <v>890.5156208274486</v>
+        <v>8179.591355371725</v>
       </c>
       <c r="S9">
-        <v>0.3110384897881991</v>
+        <v>0.2767139329233591</v>
       </c>
       <c r="T9">
-        <v>0.3110384897881991</v>
+        <v>0.2767139329233591</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.978688358287</v>
+        <v>19.230689</v>
       </c>
       <c r="H10">
-        <v>18.978688358287</v>
+        <v>57.692067</v>
       </c>
       <c r="I10">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="J10">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N10">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P10">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q10">
-        <v>503.31270763411</v>
+        <v>518.7402845244527</v>
       </c>
       <c r="R10">
-        <v>503.31270763411</v>
+        <v>4668.662560720074</v>
       </c>
       <c r="S10">
-        <v>0.1757966068335335</v>
+        <v>0.1579399168664438</v>
       </c>
       <c r="T10">
-        <v>0.1757966068335335</v>
+        <v>0.1579399168664438</v>
       </c>
     </row>
   </sheetData>
